--- a/Data/KYC_Amendment_Customer.xlsx
+++ b/Data/KYC_Amendment_Customer.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti6\IdeaProjects\Retail Ops\Data\"/>
     </mc:Choice>
@@ -19,19 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Transaction Number</t>
   </si>
-  <si>
-    <t>16992982</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -343,39 +339,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/KYC_Amendment_Customer.xlsx
+++ b/Data/KYC_Amendment_Customer.xlsx
@@ -342,12 +342,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">

--- a/Data/KYC_Amendment_Customer.xlsx
+++ b/Data/KYC_Amendment_Customer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti6\IdeaProjects\Retail Ops\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/Data/KYC_Amendment_Customer.xlsx
+++ b/Data/KYC_Amendment_Customer.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Data\"/>
     </mc:Choice>
@@ -19,15 +19,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Transaction Number</t>
   </si>
+  <si>
+    <t>16992982</t>
+  </si>
+  <si>
+    <t>10003973</t>
+  </si>
+  <si>
+    <t>10003893</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -339,7 +349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A10"/>
@@ -347,7 +357,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -355,6 +365,21 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
